--- a/data/Localizations__20240930.xlsx
+++ b/data/Localizations__20240930.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="49">
   <si>
     <t>Deleted</t>
   </si>
@@ -165,94 +165,7 @@
     <t>Job Id</t>
   </si>
   <si>
-    <t>2024-09-30 11:27:43.817 +0700</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0701</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0702</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0703</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0704</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0705</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0706</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0707</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0708</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0709</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0710</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0711</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0712</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0713</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0714</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0715</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0716</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0717</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0718</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0719</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0720</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0721</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0722</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0723</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0724</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0725</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0726</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0727</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0728</t>
-  </si>
-  <si>
-    <t>2024-09-30 11:27:43.817 +0729</t>
+    <t>2024-09-30 11:27:43</t>
   </si>
 </sst>
 </file>
@@ -738,7 +651,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1063,7 +976,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1074,8 +987,7 @@
     <col min="4" max="4" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.08984375" customWidth="1"/>
-    <col min="8" max="8" width="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -1150,10 +1062,10 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1176,10 +1088,10 @@
         <v>4</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1202,10 +1114,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -1228,10 +1140,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1254,10 +1166,10 @@
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -1280,10 +1192,10 @@
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1306,10 +1218,10 @@
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1332,10 +1244,10 @@
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -1358,10 +1270,10 @@
         <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1384,10 +1296,10 @@
         <v>4</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1410,10 +1322,10 @@
         <v>4</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1436,10 +1348,10 @@
         <v>4</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1462,10 +1374,10 @@
         <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1488,10 +1400,10 @@
         <v>4</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -1514,10 +1426,10 @@
         <v>4</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
@@ -1540,10 +1452,10 @@
         <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
@@ -1566,10 +1478,10 @@
         <v>4</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
@@ -1592,10 +1504,10 @@
         <v>4</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
@@ -1618,10 +1530,10 @@
         <v>4</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -1644,10 +1556,10 @@
         <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
@@ -1670,10 +1582,10 @@
         <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -1696,10 +1608,10 @@
         <v>4</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
@@ -1722,10 +1634,10 @@
         <v>4</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
@@ -1748,10 +1660,10 @@
         <v>4</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
@@ -1774,10 +1686,10 @@
         <v>4</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
@@ -1800,10 +1712,10 @@
         <v>4</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
@@ -1826,10 +1738,10 @@
         <v>4</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
@@ -1852,10 +1764,10 @@
         <v>4</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -1878,10 +1790,10 @@
         <v>4</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/Localizations__20240930.xlsx
+++ b/data/Localizations__20240930.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="50">
   <si>
     <t>Deleted</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>2024-09-30 11:27:43</t>
+  </si>
+  <si>
+    <t>pk</t>
   </si>
 </sst>
 </file>
@@ -973,826 +976,919 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>48</v>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>48</v>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>48</v>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+        <v>790</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>48</v>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
+        <v>791</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>48</v>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+        <v>792</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>48</v>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
+        <v>793</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>48</v>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
+        <v>794</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>48</v>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
+        <v>795</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>48</v>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
+        <v>796</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>48</v>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
+        <v>797</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>48</v>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
+        <v>798</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>48</v>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I13" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
+        <v>799</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>48</v>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
+        <v>800</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>30</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>48</v>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
+        <v>801</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>32</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>48</v>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
+        <v>802</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>48</v>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
+        <v>803</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>48</v>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
+        <v>804</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>48</v>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
+        <v>805</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
         <v>35</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>36</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>10</v>
       </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>48</v>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
+        <v>806</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
         <v>35</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>48</v>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
+        <v>807</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
         <v>37</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>38</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>48</v>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
+        <v>808</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>13</v>
       </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23">
-        <v>4</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>48</v>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
+        <v>809</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
         <v>40</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>41</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>10</v>
       </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>48</v>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
+        <v>810</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
         <v>40</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>13</v>
       </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>48</v>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
+        <v>811</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
         <v>42</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>43</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>10</v>
       </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26">
-        <v>4</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>48</v>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27" t="s">
+        <v>812</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
         <v>42</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>48</v>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
+        <v>813</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
         <v>44</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>45</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>10</v>
       </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>48</v>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29" t="s">
+        <v>814</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>45</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>13</v>
       </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>48</v>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
+        <v>815</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
         <v>46</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>47</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>10</v>
       </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>48</v>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I30" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
+        <v>816</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
         <v>46</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>13</v>
       </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>48</v>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>48</v>
       </c>
     </row>
